--- a/TODOweek3.xlsx
+++ b/TODOweek3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>todo week 3</t>
   </si>
@@ -72,22 +72,16 @@
     <t>hoe dit werkend krijgen?</t>
   </si>
   <si>
-    <t>hoe komt die daar?</t>
-  </si>
-  <si>
-    <t>Nog wel errors, kan ik dit oplossen? Komt doordat het een 'niet geldige' lijn is, (punt x, "null")</t>
-  </si>
-  <si>
-    <t>nog steeds waardeloos voor sommige staten</t>
-  </si>
-  <si>
     <t>data cost/size</t>
   </si>
   <si>
     <t>nog steeds waardeloos voor sommige staten, opnieuw python scripten</t>
   </si>
   <si>
-    <t>Voeg "play" button toe</t>
+    <t xml:space="preserve">werkt bij: electricity en capacity, werkt 1ste keer bij cost/size, daarna verneukt. </t>
+  </si>
+  <si>
+    <t>play knop uitzetten als een next/previous wordt geklikt</t>
   </si>
 </sst>
 </file>
@@ -435,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +471,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,19 +547,16 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,13 +572,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
